--- a/storage/app/templates/PersonalLeaveCard.xlsx
+++ b/storage/app/templates/PersonalLeaveCard.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="20490" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,10 +127,16 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -145,12 +151,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,100 +440,100 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
-    <col min="3" max="10" width="6.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="10.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="10" width="6.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="10.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -547,6 +547,6 @@
     <mergeCell ref="L3:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="5" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>